--- a/REGULAR/ONT/LAROZA, KIM VINCENT L..xlsx
+++ b/REGULAR/ONT/LAROZA, KIM VINCENT L..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372938F-DA17-4868-8D37-B5445A7C8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,18 +25,10 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -233,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -621,7 +614,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,7 +1101,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,7 +1144,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,7 +1208,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1268,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1334,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1397,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1495,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1554,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1619,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1662,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1737,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1923,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1989,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2047,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2113,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2169,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2244,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2287,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2353,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2409,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2507,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2570,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2619,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2643,25 +2636,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2673,13 +2666,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2688,14 +2681,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2999,7 +2992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3009,7 +3002,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3017,34 +3010,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="4056" topLeftCell="A71" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3065,7 +3058,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3085,7 +3078,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3100,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3115,7 +3108,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3128,7 +3121,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3145,7 +3138,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3180,7 +3173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3189,7 +3182,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.5</v>
+        <v>56</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3199,12 +3192,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.5</v>
+        <v>58</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3222,9 +3215,9 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
-        <v>43252</v>
+        <v>43281</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13">
@@ -3242,10 +3235,9 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <f>EDATE(A11,1)</f>
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -3263,10 +3255,9 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <f t="shared" ref="A13:A74" si="0">EDATE(A12,1)</f>
-        <v>43313</v>
+        <v>43343</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
@@ -3284,10 +3275,9 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <f t="shared" si="0"/>
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
@@ -3305,10 +3295,9 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <f t="shared" si="0"/>
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
@@ -3326,10 +3315,9 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <f t="shared" si="0"/>
-        <v>43405</v>
+        <v>43434</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>49</v>
@@ -3353,10 +3341,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <f t="shared" si="0"/>
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13">
@@ -3374,7 +3361,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -3392,10 +3379,9 @@
       <c r="J18" s="11"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <f>EDATE(A17,1)</f>
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -3413,10 +3399,9 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <f t="shared" si="0"/>
-        <v>43497</v>
+        <v>43524</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="13">
@@ -3434,10 +3419,9 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <f t="shared" si="0"/>
-        <v>43525</v>
+        <v>43555</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="13">
@@ -3455,10 +3439,9 @@
       <c r="J21" s="12"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <f t="shared" si="0"/>
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
@@ -3476,10 +3459,9 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <f t="shared" si="0"/>
-        <v>43586</v>
+        <v>43616</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -3497,10 +3479,9 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <f t="shared" si="0"/>
-        <v>43617</v>
+        <v>43646</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -3518,10 +3499,9 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <f t="shared" si="0"/>
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>52</v>
@@ -3545,10 +3525,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <f t="shared" si="0"/>
-        <v>43678</v>
+        <v>43708</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>51</v>
@@ -3572,10 +3551,9 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <f t="shared" si="0"/>
-        <v>43709</v>
+        <v>43738</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -3593,10 +3571,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <f t="shared" si="0"/>
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -3614,10 +3591,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <f t="shared" si="0"/>
-        <v>43770</v>
+        <v>43799</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -3635,10 +3611,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <f t="shared" si="0"/>
-        <v>43800</v>
+        <v>43830</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -3660,7 +3635,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>45</v>
       </c>
@@ -3678,10 +3653,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <f>EDATE(A30,1)</f>
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -3699,10 +3673,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <f t="shared" si="0"/>
-        <v>43862</v>
+        <v>43890</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>55</v>
@@ -3726,10 +3699,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <f t="shared" si="0"/>
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -3747,10 +3719,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <f t="shared" si="0"/>
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -3768,10 +3739,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <f t="shared" si="0"/>
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
@@ -3789,10 +3759,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <f t="shared" si="0"/>
-        <v>43983</v>
+        <v>44012</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -3810,10 +3779,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -3831,10 +3799,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <f t="shared" si="0"/>
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -3852,10 +3819,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <f t="shared" si="0"/>
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -3873,10 +3839,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <f t="shared" si="0"/>
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -3894,10 +3859,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <f t="shared" si="0"/>
-        <v>44136</v>
+        <v>44165</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -3915,10 +3879,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <f t="shared" si="0"/>
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>54</v>
@@ -3940,7 +3903,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>46</v>
       </c>
@@ -3958,10 +3921,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <f>EDATE(A43,1)</f>
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -3979,10 +3941,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <f t="shared" si="0"/>
-        <v>44228</v>
+        <v>44255</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -4000,10 +3961,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <f t="shared" si="0"/>
-        <v>44256</v>
+        <v>44286</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -4021,10 +3981,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <f t="shared" si="0"/>
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4042,10 +4001,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <f t="shared" si="0"/>
-        <v>44317</v>
+        <v>44347</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13">
@@ -4063,10 +4021,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <f t="shared" si="0"/>
-        <v>44348</v>
+        <v>44377</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -4084,10 +4041,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <f t="shared" si="0"/>
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -4105,10 +4061,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <f t="shared" si="0"/>
-        <v>44409</v>
+        <v>44439</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -4126,10 +4081,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <f t="shared" si="0"/>
-        <v>44440</v>
+        <v>44469</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4147,10 +4101,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <f t="shared" si="0"/>
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4168,10 +4121,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="49"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <f t="shared" si="0"/>
-        <v>44501</v>
+        <v>44530</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -4189,10 +4141,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <f t="shared" si="0"/>
-        <v>44531</v>
+        <v>44561</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>54</v>
@@ -4214,7 +4165,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="49"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>47</v>
       </c>
@@ -4232,10 +4183,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <f>EDATE(A56,1)</f>
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4253,10 +4203,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="49"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <f t="shared" si="0"/>
-        <v>44593</v>
+        <v>44620</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4274,10 +4223,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="49"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <f t="shared" si="0"/>
-        <v>44621</v>
+        <v>44651</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4295,10 +4243,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <f t="shared" si="0"/>
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4316,10 +4263,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="49"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <f t="shared" si="0"/>
-        <v>44682</v>
+        <v>44712</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4337,10 +4283,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <f t="shared" si="0"/>
-        <v>44713</v>
+        <v>44742</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4358,10 +4303,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <f t="shared" si="0"/>
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4379,10 +4323,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <f t="shared" si="0"/>
-        <v>44774</v>
+        <v>44804</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4400,10 +4343,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <f t="shared" si="0"/>
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4421,10 +4363,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="49"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4442,10 +4383,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <f t="shared" si="0"/>
-        <v>44866</v>
+        <v>44895</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>58</v>
@@ -4469,10 +4409,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <f t="shared" si="0"/>
-        <v>44896</v>
+        <v>44926</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>60</v>
@@ -4496,7 +4435,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>48</v>
       </c>
@@ -4514,10 +4453,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="49"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <f>EDATE(A69,1)</f>
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4535,10 +4473,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <f t="shared" si="0"/>
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4556,10 +4493,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <f t="shared" si="0"/>
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4577,107 +4513,130 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <f t="shared" si="0"/>
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40">
+        <v>45077</v>
+      </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <v>45107</v>
+      </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>45138</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>45169</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45199</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45230</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4692,8 +4651,10 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45260</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4708,8 +4669,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45291</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4724,8 +4687,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="49"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45322</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4740,8 +4705,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45351</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4756,8 +4723,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45382</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4772,7 +4741,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4788,7 +4757,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4804,7 +4773,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4820,7 +4789,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4836,7 +4805,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4852,7 +4821,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4868,7 +4837,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4884,7 +4853,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4900,7 +4869,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="49"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4916,7 +4885,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4932,7 +4901,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4948,7 +4917,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="49"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4964,7 +4933,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="49"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4980,7 +4949,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4996,7 +4965,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="48"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5012,7 +4981,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5028,7 +4997,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5044,7 +5013,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5060,7 +5029,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5076,7 +5045,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5092,7 +5061,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5108,7 +5077,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5124,7 +5093,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5140,7 +5109,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5156,7 +5125,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5172,7 +5141,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="49"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5188,7 +5157,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5204,7 +5173,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5220,7 +5189,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5236,7 +5205,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5252,7 +5221,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5268,7 +5237,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5284,7 +5253,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5300,7 +5269,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="48"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5316,7 +5285,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5332,7 +5301,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5348,7 +5317,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5364,7 +5333,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5380,7 +5349,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5396,7 +5365,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5412,7 +5381,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5428,7 +5397,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="49"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5444,7 +5413,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5460,7 +5429,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5476,7 +5445,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5492,7 +5461,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5508,7 +5477,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="48"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5524,7 +5493,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5540,7 +5509,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5556,7 +5525,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5572,7 +5541,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5588,7 +5557,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5604,7 +5573,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5620,7 +5589,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="49"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5636,7 +5605,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5652,7 +5621,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5668,7 +5637,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5684,7 +5653,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="49"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5700,7 +5669,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="49"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5716,7 +5685,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5732,7 +5701,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="49"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5748,7 +5717,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="49"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5764,7 +5733,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="49"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5780,7 +5749,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="49"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5796,7 +5765,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="49"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5812,7 +5781,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="48"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5828,7 +5797,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5844,7 +5813,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5860,7 +5829,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5876,7 +5845,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5892,7 +5861,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5908,7 +5877,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5924,7 +5893,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5940,7 +5909,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5956,7 +5925,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -5972,7 +5941,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -5988,7 +5957,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6004,7 +5973,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6020,7 +5989,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="48"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6036,7 +6005,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6052,7 +6021,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6068,7 +6037,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6084,7 +6053,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6100,7 +6069,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="49"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6116,7 +6085,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6132,7 +6101,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6148,7 +6117,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6164,7 +6133,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="49"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6180,7 +6149,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6196,7 +6165,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6212,7 +6181,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6228,7 +6197,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6244,7 +6213,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="49"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6260,7 +6229,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6276,7 +6245,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="49"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6292,7 +6261,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="49"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6308,7 +6277,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6324,7 +6293,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="49"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="48"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6340,7 +6309,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="49"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6356,7 +6325,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="49"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -6372,7 +6341,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -6388,7 +6357,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -6404,7 +6373,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="49"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6420,7 +6389,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6436,7 +6405,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6452,7 +6421,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -6468,7 +6437,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6484,7 +6453,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6500,7 +6469,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6516,7 +6485,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="49"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -6532,7 +6501,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="15"/>
       <c r="C196" s="13"/>
@@ -6548,7 +6517,7 @@
       <c r="J196" s="12"/>
       <c r="K196" s="50"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="15"/>
       <c r="C197" s="13"/>
@@ -6564,7 +6533,7 @@
       <c r="J197" s="12"/>
       <c r="K197" s="15"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -6580,7 +6549,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="49"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -6596,7 +6565,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -6612,7 +6581,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="49"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -6628,7 +6597,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -6644,7 +6613,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -6660,7 +6629,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -6676,7 +6645,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="49"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -6692,7 +6661,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -6708,7 +6677,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -6724,7 +6693,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -6740,7 +6709,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -6756,7 +6725,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6772,7 +6741,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -6788,7 +6757,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -6804,7 +6773,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -6820,7 +6789,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -6836,7 +6805,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6852,7 +6821,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -6868,7 +6837,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -6884,7 +6853,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="49"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -6900,7 +6869,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -6916,7 +6885,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="49"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6932,7 +6901,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6948,7 +6917,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6964,7 +6933,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="48"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -6980,7 +6949,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -6996,7 +6965,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="49"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -7012,7 +6981,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7028,7 +6997,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7044,7 +7013,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -7060,7 +7029,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -7076,7 +7045,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -7092,7 +7061,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -7108,7 +7077,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -7124,7 +7093,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -7140,7 +7109,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -7156,7 +7125,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -7172,7 +7141,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -7188,7 +7157,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -7204,7 +7173,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -7220,7 +7189,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -7236,7 +7205,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7252,7 +7221,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -7268,7 +7237,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -7284,7 +7253,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -7300,7 +7269,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -7316,7 +7285,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -7332,7 +7301,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -7348,7 +7317,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -7364,7 +7333,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="49"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -7380,7 +7349,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -7396,7 +7365,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -7412,7 +7381,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -7428,7 +7397,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -7444,7 +7413,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="49"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -7460,7 +7429,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="49"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -7476,7 +7445,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="49"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -7492,7 +7461,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7508,7 +7477,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7524,7 +7493,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="49"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -7540,7 +7509,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -7556,7 +7525,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -7572,7 +7541,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -7588,7 +7557,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -7604,7 +7573,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -7620,7 +7589,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -7636,7 +7605,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -7652,7 +7621,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="49"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -7668,7 +7637,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="49"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -7684,7 +7653,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="48"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -7700,7 +7669,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -7716,7 +7685,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="49"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -7732,7 +7701,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -7748,7 +7717,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="49"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -7764,7 +7733,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -7780,7 +7749,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -7796,7 +7765,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="49"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -7812,7 +7781,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="49"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -7828,7 +7797,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -7844,7 +7813,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="49"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -7860,7 +7829,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="49"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -7876,7 +7845,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -7892,7 +7861,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -7908,7 +7877,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -7924,7 +7893,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -7940,7 +7909,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="49"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -7956,7 +7925,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -7972,7 +7941,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -7988,7 +7957,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -8004,7 +7973,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="49"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -8020,7 +7989,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="49"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -8036,7 +8005,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -8052,7 +8021,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -8068,7 +8037,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="49"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -8084,7 +8053,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="49"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -8100,7 +8069,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -8116,7 +8085,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -8132,7 +8101,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -8148,7 +8117,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="49"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -8164,7 +8133,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -8180,7 +8149,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -8196,7 +8165,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -8212,7 +8181,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="49"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -8228,7 +8197,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="49"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -8244,7 +8213,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="48"/>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -8260,7 +8229,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -8276,7 +8245,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -8292,7 +8261,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -8308,7 +8277,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -8324,7 +8293,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -8340,7 +8309,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="49"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -8356,7 +8325,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -8372,7 +8341,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -8388,7 +8357,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -8404,7 +8373,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="49"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -8420,7 +8389,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -8436,7 +8405,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="49"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -8452,7 +8421,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -8468,7 +8437,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="49"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -8484,7 +8453,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="49"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -8500,7 +8469,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -8516,7 +8485,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -8532,7 +8501,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="49"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -8548,7 +8517,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -8564,7 +8533,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -8580,7 +8549,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="49"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -8596,7 +8565,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -8612,7 +8581,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -8628,7 +8597,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="49"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -8644,7 +8613,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="48"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -8660,7 +8629,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -8676,7 +8645,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="49"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -8692,7 +8661,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -8708,7 +8677,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="49"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -8724,7 +8693,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -8740,7 +8709,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -8756,7 +8725,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="49"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -8772,7 +8741,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="49"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -8788,7 +8757,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -8804,7 +8773,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -8820,7 +8789,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -8836,7 +8805,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -8852,7 +8821,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="49"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -8868,7 +8837,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="49"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -8884,7 +8853,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -8900,7 +8869,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -8916,7 +8885,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -8932,7 +8901,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -8948,7 +8917,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="49"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -8964,7 +8933,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -8980,7 +8949,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -8996,7 +8965,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -9012,7 +8981,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -9028,7 +8997,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -9044,7 +9013,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="49"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -9060,7 +9029,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -9076,7 +9045,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -9092,7 +9061,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -9108,7 +9077,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="49"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -9124,7 +9093,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -9140,7 +9109,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="48"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -9156,7 +9125,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -9172,7 +9141,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="49"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -9188,7 +9157,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -9204,7 +9173,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="49"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -9220,7 +9189,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="49"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -9236,7 +9205,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -9252,7 +9221,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="49"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -9268,7 +9237,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -9284,7 +9253,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -9300,7 +9269,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -9316,7 +9285,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -9332,7 +9301,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -9348,7 +9317,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -9364,7 +9333,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -9380,7 +9349,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -9396,7 +9365,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -9412,7 +9381,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -9428,7 +9397,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -9444,7 +9413,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="48"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -9460,7 +9429,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -9476,7 +9445,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -9492,7 +9461,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -9508,7 +9477,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -9524,7 +9493,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -9540,7 +9509,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -9556,7 +9525,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -9572,7 +9541,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9588,7 +9557,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -9604,7 +9573,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -9620,7 +9589,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -9636,7 +9605,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -9652,7 +9621,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="48"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -9668,7 +9637,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -9684,7 +9653,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -9700,7 +9669,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -9716,7 +9685,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -9732,7 +9701,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -9748,7 +9717,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -9764,7 +9733,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -9780,7 +9749,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -9796,7 +9765,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -9812,7 +9781,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -9828,7 +9797,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -9844,7 +9813,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -9860,7 +9829,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="48"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -9876,7 +9845,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -9892,7 +9861,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -9908,7 +9877,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -9924,7 +9893,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -9940,7 +9909,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -9956,7 +9925,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -9972,7 +9941,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -9988,7 +9957,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10004,7 +9973,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10020,7 +9989,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10036,7 +10005,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10052,7 +10021,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10068,7 +10037,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10084,7 +10053,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10100,7 +10069,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10116,7 +10085,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10132,7 +10101,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10148,7 +10117,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10164,7 +10133,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10180,7 +10149,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10196,7 +10165,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10212,7 +10181,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10228,7 +10197,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10244,7 +10213,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10260,7 +10229,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -10276,7 +10245,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="48"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -10292,7 +10261,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -10308,7 +10277,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10324,7 +10293,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10340,7 +10309,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -10356,7 +10325,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -10372,7 +10341,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -10388,7 +10357,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -10404,7 +10373,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -10420,7 +10389,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -10436,7 +10405,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -10452,7 +10421,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -10468,7 +10437,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -10484,7 +10453,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="48"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -10500,7 +10469,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -10516,7 +10485,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -10532,7 +10501,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -10548,7 +10517,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -10564,7 +10533,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -10580,7 +10549,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -10596,7 +10565,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -10612,7 +10581,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -10628,7 +10597,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -10644,7 +10613,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -10660,7 +10629,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -10676,7 +10645,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -10692,7 +10661,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -10708,7 +10677,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -10724,7 +10693,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -10740,7 +10709,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -10756,7 +10725,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -10772,7 +10741,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -10788,7 +10757,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -10804,7 +10773,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -10820,7 +10789,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -10836,7 +10805,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -10852,7 +10821,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -10868,7 +10837,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -10884,7 +10853,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -10900,7 +10869,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -10916,7 +10885,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -10932,7 +10901,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -10948,7 +10917,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -10964,7 +10933,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -10980,7 +10949,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -10996,7 +10965,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -11012,7 +10981,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -11028,7 +10997,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -11044,7 +11013,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -11060,7 +11029,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -11076,7 +11045,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -11092,7 +11061,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -11108,7 +11077,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -11124,7 +11093,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -11140,7 +11109,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -11156,7 +11125,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -11172,7 +11141,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -11188,7 +11157,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -11204,7 +11173,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -11220,7 +11189,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -11236,7 +11205,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -11252,7 +11221,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -11268,7 +11237,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -11284,7 +11253,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -11300,7 +11269,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -11316,7 +11285,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -11332,7 +11301,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -11348,7 +11317,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -11364,7 +11333,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -11380,7 +11349,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -11396,7 +11365,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -11412,7 +11381,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -11428,7 +11397,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -11444,7 +11413,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -11460,7 +11429,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -11476,7 +11445,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -11492,7 +11461,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -11508,7 +11477,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -11524,7 +11493,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -11540,7 +11509,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -11556,7 +11525,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -11572,7 +11541,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="41"/>
       <c r="B511" s="15"/>
       <c r="C511" s="42"/>
@@ -11603,10 +11572,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11629,7 +11598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11637,21 +11606,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -11664,7 +11633,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11693,7 +11662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -11713,17 +11682,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11744,7 +11713,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11771,7 +11740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11797,7 +11766,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11823,7 +11792,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11849,7 +11818,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11875,7 +11844,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11901,7 +11870,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11927,7 +11896,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11953,7 +11922,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11973,7 +11942,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11993,7 +11962,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12013,7 +11982,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12034,7 +12003,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12055,7 +12024,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12076,7 +12045,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12097,7 +12066,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12118,7 +12087,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12139,7 +12108,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12160,7 +12129,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12181,7 +12150,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12202,7 +12171,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12223,7 +12192,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12244,7 +12213,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12265,7 +12234,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12286,7 +12255,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12307,7 +12276,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12328,7 +12297,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12349,7 +12318,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12370,7 +12339,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12391,7 +12360,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12412,7 +12381,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12433,7 +12402,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12442,7 +12411,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12451,7 +12420,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12460,7 +12429,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12469,7 +12438,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12478,7 +12447,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12487,7 +12456,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12496,7 +12465,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12505,7 +12474,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12514,7 +12483,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12523,7 +12492,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12532,7 +12501,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12541,7 +12510,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12550,7 +12519,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12559,7 +12528,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12568,7 +12537,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12577,7 +12546,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12586,7 +12555,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12595,7 +12564,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12604,7 +12573,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12613,7 +12582,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12622,7 +12591,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12631,7 +12600,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12640,7 +12609,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12649,7 +12618,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12658,7 +12627,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12667,7 +12636,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12676,7 +12645,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12685,7 +12654,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12694,7 +12663,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
